--- a/c_cooler.xlsx
+++ b/c_cooler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_Projects\pythonProject6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE11783-C51D-4246-8E94-F7D0AA401BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431B20A6-0A6E-401D-B473-D4B02ABE48D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>T</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>K</t>
+  </si>
+  <si>
+    <t>lambda</t>
   </si>
 </sst>
 </file>
@@ -354,15 +357,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -375,8 +378,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>223</v>
       </c>
@@ -389,8 +395,11 @@
       <c r="D2">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>0.127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>233</v>
       </c>
@@ -403,8 +412,11 @@
       <c r="D3">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>253</v>
       </c>
@@ -417,8 +429,11 @@
       <c r="D4">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>0.123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>273</v>
       </c>
@@ -431,8 +446,11 @@
       <c r="D5">
         <v>70</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>293</v>
       </c>
@@ -445,8 +463,11 @@
       <c r="D6">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>313</v>
       </c>
@@ -459,8 +480,11 @@
       <c r="D7">
         <v>90</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>0.114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>333</v>
       </c>
@@ -473,8 +497,11 @@
       <c r="D8">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>353</v>
       </c>
@@ -487,8 +514,11 @@
       <c r="D9">
         <v>110</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>373</v>
       </c>
@@ -501,8 +531,11 @@
       <c r="D10">
         <v>120</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>393</v>
       </c>
@@ -515,8 +548,11 @@
       <c r="D11">
         <v>130</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>413</v>
       </c>
@@ -529,8 +565,11 @@
       <c r="D12">
         <v>140</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>433</v>
       </c>
@@ -543,8 +582,11 @@
       <c r="D13">
         <v>150</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>453</v>
       </c>
@@ -557,8 +599,11 @@
       <c r="D14">
         <v>155</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>473</v>
       </c>
@@ -571,8 +616,11 @@
       <c r="D15">
         <v>160</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>533</v>
       </c>
@@ -584,6 +632,9 @@
       </c>
       <c r="D16">
         <v>178</v>
+      </c>
+      <c r="E16">
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
   </sheetData>

--- a/c_cooler.xlsx
+++ b/c_cooler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_Projects\pythonProject6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431B20A6-0A6E-401D-B473-D4B02ABE48D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10211A47-059D-4C45-B7B6-158660BEA68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19644" yWindow="1548" windowWidth="17280" windowHeight="9036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>T</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>lambda</t>
+  </si>
+  <si>
+    <t>nu</t>
   </si>
 </sst>
 </file>
@@ -357,15 +360,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -381,8 +384,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>223</v>
       </c>
@@ -398,8 +404,11 @@
       <c r="E2">
         <v>0.127</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>233</v>
       </c>
@@ -415,8 +424,11 @@
       <c r="E3">
         <v>0.125</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>7.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>253</v>
       </c>
@@ -432,8 +444,11 @@
       <c r="E4">
         <v>0.123</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>3.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>273</v>
       </c>
@@ -449,8 +464,11 @@
       <c r="E5">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>293</v>
       </c>
@@ -466,8 +484,11 @@
       <c r="E6">
         <v>0.11700000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>313</v>
       </c>
@@ -483,8 +504,11 @@
       <c r="E7">
         <v>0.114</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>333</v>
       </c>
@@ -500,8 +524,11 @@
       <c r="E8">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>353</v>
       </c>
@@ -517,8 +544,11 @@
       <c r="E9">
         <v>0.108</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>373</v>
       </c>
@@ -534,8 +564,11 @@
       <c r="E10">
         <v>0.104</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>393</v>
       </c>
@@ -551,8 +584,11 @@
       <c r="E11">
         <v>0.10199999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>4.4999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>413</v>
       </c>
@@ -568,8 +604,11 @@
       <c r="E12">
         <v>9.9000000000000005E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>3.8999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>433</v>
       </c>
@@ -585,8 +624,11 @@
       <c r="E13">
         <v>9.6000000000000002E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>3.5E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>453</v>
       </c>
@@ -602,8 +644,11 @@
       <c r="E14">
         <v>9.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>473</v>
       </c>
@@ -619,8 +664,11 @@
       <c r="E15">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>2.5999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>533</v>
       </c>
@@ -635,6 +683,9 @@
       </c>
       <c r="E16">
         <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="F16">
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
   </sheetData>
